--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_36ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_36ha_100ha_6%_6m_0_LM/Planilha_Unificada.xlsx
@@ -2352,28 +2352,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>192.4686692171052</v>
+        <v>234.1266060354279</v>
       </c>
       <c r="AB2" t="n">
-        <v>263.3441243411353</v>
+        <v>320.3423513144015</v>
       </c>
       <c r="AC2" t="n">
-        <v>238.210930719894</v>
+        <v>289.769326908364</v>
       </c>
       <c r="AD2" t="n">
-        <v>192468.6692171052</v>
+        <v>234126.6060354279</v>
       </c>
       <c r="AE2" t="n">
-        <v>263344.1243411353</v>
+        <v>320342.3513144015</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.696767008470807e-06</v>
+        <v>4.559018431154065e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.511574074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>238210.930719894</v>
+        <v>289769.326908364</v>
       </c>
     </row>
     <row r="3">
@@ -2458,28 +2458,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>132.0054424793714</v>
+        <v>163.2488950931135</v>
       </c>
       <c r="AB3" t="n">
-        <v>180.6156700693049</v>
+        <v>223.3643402992546</v>
       </c>
       <c r="AC3" t="n">
-        <v>163.377964013626</v>
+        <v>202.0467611549785</v>
       </c>
       <c r="AD3" t="n">
-        <v>132005.4424793714</v>
+        <v>163248.8950931135</v>
       </c>
       <c r="AE3" t="n">
-        <v>180615.6700693048</v>
+        <v>223364.3402992546</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.524089267608096e-06</v>
+        <v>5.95764775881322e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.748456790123457</v>
       </c>
       <c r="AH3" t="n">
-        <v>163377.964013626</v>
+        <v>202046.7611549785</v>
       </c>
     </row>
     <row r="4">
@@ -2564,28 +2564,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>116.1332783482024</v>
+        <v>136.9623362659147</v>
       </c>
       <c r="AB4" t="n">
-        <v>158.8986748745885</v>
+        <v>187.39791083077</v>
       </c>
       <c r="AC4" t="n">
-        <v>143.7336083602923</v>
+        <v>169.5129172357539</v>
       </c>
       <c r="AD4" t="n">
-        <v>116133.2783482024</v>
+        <v>136962.3362659147</v>
       </c>
       <c r="AE4" t="n">
-        <v>158898.6748745885</v>
+        <v>187397.91083077</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.002951983206e-06</v>
+        <v>6.767188938880266e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.061728395061729</v>
       </c>
       <c r="AH4" t="n">
-        <v>143733.6083602923</v>
+        <v>169512.9172357538</v>
       </c>
     </row>
     <row r="5">
@@ -2670,28 +2670,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>99.79743616933958</v>
+        <v>130.95554792851</v>
       </c>
       <c r="AB5" t="n">
-        <v>136.5472549189863</v>
+        <v>179.1791580267384</v>
       </c>
       <c r="AC5" t="n">
-        <v>123.5153765548307</v>
+        <v>162.0785506642444</v>
       </c>
       <c r="AD5" t="n">
-        <v>99797.43616933958</v>
+        <v>130955.54792851</v>
       </c>
       <c r="AE5" t="n">
-        <v>136547.2549189863</v>
+        <v>179179.1580267384</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.188709542437168e-06</v>
+        <v>7.081221309344966e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.837962962962963</v>
       </c>
       <c r="AH5" t="n">
-        <v>123515.3765548307</v>
+        <v>162078.5506642444</v>
       </c>
     </row>
     <row r="6">
@@ -2776,28 +2776,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>95.66585292939641</v>
+        <v>126.8239646885668</v>
       </c>
       <c r="AB6" t="n">
-        <v>130.8942404575104</v>
+        <v>173.5261435652625</v>
       </c>
       <c r="AC6" t="n">
-        <v>118.4018778595007</v>
+        <v>156.9650519689144</v>
       </c>
       <c r="AD6" t="n">
-        <v>95665.85292939641</v>
+        <v>126823.9646885668</v>
       </c>
       <c r="AE6" t="n">
-        <v>130894.2404575105</v>
+        <v>173526.1435652626</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.299418316782461e-06</v>
+        <v>7.268379985324495e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.714506172839506</v>
       </c>
       <c r="AH6" t="n">
-        <v>118401.8778595007</v>
+        <v>156965.0519689144</v>
       </c>
     </row>
     <row r="7">
@@ -2882,28 +2882,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>95.51477132316417</v>
+        <v>126.6728830823346</v>
       </c>
       <c r="AB7" t="n">
-        <v>130.6875239386136</v>
+        <v>173.3194270463657</v>
       </c>
       <c r="AC7" t="n">
-        <v>118.2148900750388</v>
+        <v>156.7780641844525</v>
       </c>
       <c r="AD7" t="n">
-        <v>95514.77132316417</v>
+        <v>126672.8830823346</v>
       </c>
       <c r="AE7" t="n">
-        <v>130687.5239386136</v>
+        <v>173319.4270463657</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.293956403816659e-06</v>
+        <v>7.259146350456435e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.718364197530864</v>
       </c>
       <c r="AH7" t="n">
-        <v>118214.8900750388</v>
+        <v>156778.0641844525</v>
       </c>
     </row>
   </sheetData>
@@ -3179,28 +3179,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>150.7198358126138</v>
+        <v>181.0768801987655</v>
       </c>
       <c r="AB2" t="n">
-        <v>206.2215286485988</v>
+        <v>247.7573760359888</v>
       </c>
       <c r="AC2" t="n">
-        <v>186.5400353881685</v>
+        <v>224.1117597968472</v>
       </c>
       <c r="AD2" t="n">
-        <v>150719.8358126138</v>
+        <v>181076.8801987655</v>
       </c>
       <c r="AE2" t="n">
-        <v>206221.5286485988</v>
+        <v>247757.3760359888</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.177517693767152e-06</v>
+        <v>5.502796568184376e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.597222222222223</v>
       </c>
       <c r="AH2" t="n">
-        <v>186540.0353881685</v>
+        <v>224111.7597968472</v>
       </c>
     </row>
     <row r="3">
@@ -3285,28 +3285,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>112.3258273896402</v>
+        <v>132.5070525859112</v>
       </c>
       <c r="AB3" t="n">
-        <v>153.6891525002051</v>
+        <v>181.3019951465484</v>
       </c>
       <c r="AC3" t="n">
-        <v>139.0212754897078</v>
+        <v>163.9987871887609</v>
       </c>
       <c r="AD3" t="n">
-        <v>112325.8273896402</v>
+        <v>132507.0525859112</v>
       </c>
       <c r="AE3" t="n">
-        <v>153689.1525002051</v>
+        <v>181301.9951465484</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.027666393833295e-06</v>
+        <v>6.975076441982362e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.204475308641975</v>
       </c>
       <c r="AH3" t="n">
-        <v>139021.2754897078</v>
+        <v>163998.7871887609</v>
       </c>
     </row>
     <row r="4">
@@ -3391,28 +3391,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>93.63005992734604</v>
+        <v>123.8164226043544</v>
       </c>
       <c r="AB4" t="n">
-        <v>128.108778659258</v>
+        <v>169.4110918022527</v>
       </c>
       <c r="AC4" t="n">
-        <v>115.8822566258524</v>
+        <v>153.2427349706535</v>
       </c>
       <c r="AD4" t="n">
-        <v>93630.05992734604</v>
+        <v>123816.4226043544</v>
       </c>
       <c r="AE4" t="n">
-        <v>128108.778659258</v>
+        <v>169411.0918022527</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.338757361150443e-06</v>
+        <v>7.513820981691417e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.830246913580247</v>
       </c>
       <c r="AH4" t="n">
-        <v>115882.2566258524</v>
+        <v>153242.7349706535</v>
       </c>
     </row>
     <row r="5">
@@ -3497,28 +3497,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>89.88483213930088</v>
+        <v>120.0711948163092</v>
       </c>
       <c r="AB5" t="n">
-        <v>122.9843927718683</v>
+        <v>164.2867059148631</v>
       </c>
       <c r="AC5" t="n">
-        <v>111.2469349354328</v>
+        <v>148.6074132802339</v>
       </c>
       <c r="AD5" t="n">
-        <v>89884.83213930088</v>
+        <v>120071.1948163092</v>
       </c>
       <c r="AE5" t="n">
-        <v>122984.3927718683</v>
+        <v>164286.7059148631</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.460455539074022e-06</v>
+        <v>7.724576791846548e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.699074074074074</v>
       </c>
       <c r="AH5" t="n">
-        <v>111246.9349354328</v>
+        <v>148607.4132802339</v>
       </c>
     </row>
   </sheetData>
@@ -3794,28 +3794,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>89.23179460825172</v>
+        <v>107.4626153422332</v>
       </c>
       <c r="AB2" t="n">
-        <v>122.0908780119047</v>
+        <v>147.0350912271728</v>
       </c>
       <c r="AC2" t="n">
-        <v>110.438695970104</v>
+        <v>133.002268485538</v>
       </c>
       <c r="AD2" t="n">
-        <v>89231.79460825172</v>
+        <v>107462.6153422332</v>
       </c>
       <c r="AE2" t="n">
-        <v>122090.8780119047</v>
+        <v>147035.0912271728</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.589710904163605e-06</v>
+        <v>8.684720689279803e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.096450617283951</v>
       </c>
       <c r="AH2" t="n">
-        <v>110438.695970104</v>
+        <v>133002.268485538</v>
       </c>
     </row>
     <row r="3">
@@ -3900,28 +3900,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>75.53525999725956</v>
+        <v>102.7960159808337</v>
       </c>
       <c r="AB3" t="n">
-        <v>103.3506751086934</v>
+        <v>140.6500441050753</v>
       </c>
       <c r="AC3" t="n">
-        <v>93.48703172992921</v>
+        <v>127.2266012993015</v>
       </c>
       <c r="AD3" t="n">
-        <v>75535.25999725956</v>
+        <v>102796.0159808337</v>
       </c>
       <c r="AE3" t="n">
-        <v>103350.6751086934</v>
+        <v>140650.0441050753</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.876158624644572e-06</v>
+        <v>9.226741417034428e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.795524691358025</v>
       </c>
       <c r="AH3" t="n">
-        <v>93487.03172992921</v>
+        <v>127226.6012993015</v>
       </c>
     </row>
   </sheetData>
@@ -4197,28 +4197,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>102.9177313476801</v>
+        <v>131.2370314840049</v>
       </c>
       <c r="AB2" t="n">
-        <v>140.8165804396975</v>
+        <v>179.5642962455443</v>
       </c>
       <c r="AC2" t="n">
-        <v>127.3772436398826</v>
+        <v>162.4269318319925</v>
       </c>
       <c r="AD2" t="n">
-        <v>102917.7313476801</v>
+        <v>131237.0314840049</v>
       </c>
       <c r="AE2" t="n">
-        <v>140816.5804396975</v>
+        <v>179564.2962455443</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.135934318472623e-06</v>
+        <v>7.534774107631105e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.408950617283951</v>
       </c>
       <c r="AH2" t="n">
-        <v>127377.2436398827</v>
+        <v>162426.9318319925</v>
       </c>
     </row>
     <row r="3">
@@ -4303,28 +4303,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>80.10948811780251</v>
+        <v>108.5140396001479</v>
       </c>
       <c r="AB3" t="n">
-        <v>109.6093358239194</v>
+        <v>148.4736962824155</v>
       </c>
       <c r="AC3" t="n">
-        <v>99.14837465058154</v>
+        <v>134.3035750934036</v>
       </c>
       <c r="AD3" t="n">
-        <v>80109.48811780251</v>
+        <v>108514.0396001479</v>
       </c>
       <c r="AE3" t="n">
-        <v>109609.3358239194</v>
+        <v>148473.6962824154</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.769608660649112e-06</v>
+        <v>8.689191140990767e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.691358024691358</v>
       </c>
       <c r="AH3" t="n">
-        <v>99148.37465058155</v>
+        <v>134303.5750934036</v>
       </c>
     </row>
     <row r="4">
@@ -4409,28 +4409,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>80.38091160460669</v>
+        <v>108.7854630869521</v>
       </c>
       <c r="AB4" t="n">
-        <v>109.9807094129238</v>
+        <v>148.8450698714199</v>
       </c>
       <c r="AC4" t="n">
-        <v>99.48430486547761</v>
+        <v>134.6395053082997</v>
       </c>
       <c r="AD4" t="n">
-        <v>80380.91160460669</v>
+        <v>108785.4630869521</v>
       </c>
       <c r="AE4" t="n">
-        <v>109980.7094129238</v>
+        <v>148845.0698714199</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.767114793111715e-06</v>
+        <v>8.684647855942763e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.695216049382716</v>
       </c>
       <c r="AH4" t="n">
-        <v>99484.30486547761</v>
+        <v>134639.5053082997</v>
       </c>
     </row>
   </sheetData>
@@ -4706,28 +4706,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>71.52693523147677</v>
+        <v>97.84954427810673</v>
       </c>
       <c r="AB2" t="n">
-        <v>97.86630832934382</v>
+        <v>133.8820632984776</v>
       </c>
       <c r="AC2" t="n">
-        <v>88.52608521864192</v>
+        <v>121.1045470819626</v>
       </c>
       <c r="AD2" t="n">
-        <v>71526.93523147677</v>
+        <v>97849.54427810674</v>
       </c>
       <c r="AE2" t="n">
-        <v>97866.30832934382</v>
+        <v>133882.0632984776</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.912497289363613e-06</v>
+        <v>9.626911878228623e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.945987654320988</v>
       </c>
       <c r="AH2" t="n">
-        <v>88526.08521864192</v>
+        <v>121104.5470819626</v>
       </c>
     </row>
   </sheetData>
@@ -5003,28 +5003,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>157.3242951609847</v>
+        <v>197.9417802664768</v>
       </c>
       <c r="AB2" t="n">
-        <v>215.2580412972179</v>
+        <v>270.8326763355001</v>
       </c>
       <c r="AC2" t="n">
-        <v>194.7141159524315</v>
+        <v>244.9847858221679</v>
       </c>
       <c r="AD2" t="n">
-        <v>157324.2951609847</v>
+        <v>197941.7802664768</v>
       </c>
       <c r="AE2" t="n">
-        <v>215258.0412972179</v>
+        <v>270832.6763355001</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.05895128340987e-06</v>
+        <v>5.262868197120201e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.790123456790123</v>
       </c>
       <c r="AH2" t="n">
-        <v>194714.1159524315</v>
+        <v>244984.7858221679</v>
       </c>
     </row>
     <row r="3">
@@ -5109,28 +5109,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>116.239765691237</v>
+        <v>146.5962929606927</v>
       </c>
       <c r="AB3" t="n">
-        <v>159.0443755552185</v>
+        <v>200.5795154007315</v>
       </c>
       <c r="AC3" t="n">
-        <v>143.8654035724553</v>
+        <v>181.4364879660606</v>
       </c>
       <c r="AD3" t="n">
-        <v>116239.765691237</v>
+        <v>146596.2929606927</v>
       </c>
       <c r="AE3" t="n">
-        <v>159044.3755552185</v>
+        <v>200579.5154007315</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.919446221478948e-06</v>
+        <v>6.743333567035627e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.300925925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>143865.4035724553</v>
+        <v>181436.4879660606</v>
       </c>
     </row>
     <row r="4">
@@ -5215,28 +5215,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>96.92364209788406</v>
+        <v>127.3654207133603</v>
       </c>
       <c r="AB4" t="n">
-        <v>132.6152030875762</v>
+        <v>174.2669875857385</v>
       </c>
       <c r="AC4" t="n">
-        <v>119.9585942315398</v>
+        <v>157.6351908758574</v>
       </c>
       <c r="AD4" t="n">
-        <v>96923.64209788406</v>
+        <v>127365.4207133603</v>
       </c>
       <c r="AE4" t="n">
-        <v>132615.2030875762</v>
+        <v>174266.9875857385</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.248040928464029e-06</v>
+        <v>7.308674585218198e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.888117283950617</v>
       </c>
       <c r="AH4" t="n">
-        <v>119958.5942315398</v>
+        <v>157635.1908758574</v>
       </c>
     </row>
     <row r="5">
@@ -5321,28 +5321,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>91.2456209199957</v>
+        <v>121.6873995354719</v>
       </c>
       <c r="AB5" t="n">
-        <v>124.8462840153781</v>
+        <v>166.4980685135404</v>
       </c>
       <c r="AC5" t="n">
-        <v>112.9311298918434</v>
+        <v>150.607726536161</v>
       </c>
       <c r="AD5" t="n">
-        <v>91245.62091999571</v>
+        <v>121687.3995354719</v>
       </c>
       <c r="AE5" t="n">
-        <v>124846.2840153781</v>
+        <v>166498.0685135404</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.425933262050579e-06</v>
+        <v>7.614735002074697e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.691358024691358</v>
       </c>
       <c r="AH5" t="n">
-        <v>112931.1298918434</v>
+        <v>150607.726536161</v>
       </c>
     </row>
     <row r="6">
@@ -5427,28 +5427,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>91.27103284524134</v>
+        <v>121.7128114607176</v>
       </c>
       <c r="AB6" t="n">
-        <v>124.8810537325942</v>
+        <v>166.5328382307565</v>
       </c>
       <c r="AC6" t="n">
-        <v>112.962581236048</v>
+        <v>150.6391778803656</v>
       </c>
       <c r="AD6" t="n">
-        <v>91271.03284524134</v>
+        <v>121712.8114607176</v>
       </c>
       <c r="AE6" t="n">
-        <v>124881.0537325942</v>
+        <v>166532.8382307565</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.425717896029288e-06</v>
+        <v>7.614364468882377e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.695216049382716</v>
       </c>
       <c r="AH6" t="n">
-        <v>112962.581236048</v>
+        <v>150639.1778803656</v>
       </c>
     </row>
   </sheetData>
@@ -5724,28 +5724,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>78.55961894175152</v>
+        <v>95.79465941614488</v>
       </c>
       <c r="AB2" t="n">
-        <v>107.4887364418451</v>
+        <v>131.0704791752208</v>
       </c>
       <c r="AC2" t="n">
-        <v>97.23016229725187</v>
+        <v>118.5612966013454</v>
       </c>
       <c r="AD2" t="n">
-        <v>78559.61894175153</v>
+        <v>95794.65941614489</v>
       </c>
       <c r="AE2" t="n">
-        <v>107488.7364418451</v>
+        <v>131070.4791752208</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.857509262715902e-06</v>
+        <v>9.737656347963828e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.11574074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>97230.16229725187</v>
+        <v>118561.2966013454</v>
       </c>
     </row>
   </sheetData>
@@ -6021,28 +6021,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>120.8695718655689</v>
+        <v>159.9558971336849</v>
       </c>
       <c r="AB2" t="n">
-        <v>165.3790806155692</v>
+        <v>218.8587152143498</v>
       </c>
       <c r="AC2" t="n">
-        <v>149.5955332726625</v>
+        <v>197.9711466044911</v>
       </c>
       <c r="AD2" t="n">
-        <v>120869.5718655689</v>
+        <v>159955.8971336849</v>
       </c>
       <c r="AE2" t="n">
-        <v>165379.0806155692</v>
+        <v>218858.7152143499</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.606830651105555e-06</v>
+        <v>6.387965095511985e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.987654320987654</v>
       </c>
       <c r="AH2" t="n">
-        <v>149595.5332726625</v>
+        <v>197971.1466044911</v>
       </c>
     </row>
     <row r="3">
@@ -6127,28 +6127,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>90.45636596103621</v>
+        <v>119.813780339409</v>
       </c>
       <c r="AB3" t="n">
-        <v>123.7663905610589</v>
+        <v>163.9345000712431</v>
       </c>
       <c r="AC3" t="n">
-        <v>111.9542999531641</v>
+        <v>148.288821468005</v>
       </c>
       <c r="AD3" t="n">
-        <v>90456.36596103621</v>
+        <v>119813.780339409</v>
       </c>
       <c r="AE3" t="n">
-        <v>123766.3905610589</v>
+        <v>163934.5000712432</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.405276098569972e-06</v>
+        <v>7.802071312977383e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.90354938271605</v>
       </c>
       <c r="AH3" t="n">
-        <v>111954.2999531641</v>
+        <v>148288.821468005</v>
       </c>
     </row>
     <row r="4">
@@ -6233,28 +6233,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>85.14429087930252</v>
+        <v>114.5017052576754</v>
       </c>
       <c r="AB4" t="n">
-        <v>116.4981750820217</v>
+        <v>156.6662845922059</v>
       </c>
       <c r="AC4" t="n">
-        <v>105.3797527584393</v>
+        <v>141.7142742732802</v>
       </c>
       <c r="AD4" t="n">
-        <v>85144.29087930251</v>
+        <v>114501.7052576753</v>
       </c>
       <c r="AE4" t="n">
-        <v>116498.1750820217</v>
+        <v>156666.2845922059</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.611660588530803e-06</v>
+        <v>8.167593580489646e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.683641975308642</v>
       </c>
       <c r="AH4" t="n">
-        <v>105379.7527584393</v>
+        <v>141714.2742732802</v>
       </c>
     </row>
   </sheetData>
@@ -6530,28 +6530,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>143.6668233396217</v>
+        <v>173.5881470750776</v>
       </c>
       <c r="AB2" t="n">
-        <v>196.5712858261057</v>
+        <v>237.5109609965758</v>
       </c>
       <c r="AC2" t="n">
-        <v>177.8107981964503</v>
+        <v>214.8432482278587</v>
       </c>
       <c r="AD2" t="n">
-        <v>143666.8233396217</v>
+        <v>173588.1470750776</v>
       </c>
       <c r="AE2" t="n">
-        <v>196571.2858261057</v>
+        <v>237510.9609965758</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.31442856373801e-06</v>
+        <v>5.780074001894003e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.385030864197531</v>
       </c>
       <c r="AH2" t="n">
-        <v>177810.7981964503</v>
+        <v>214843.2482278587</v>
       </c>
     </row>
     <row r="3">
@@ -6636,28 +6636,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>108.4396531271679</v>
+        <v>128.44412602337</v>
       </c>
       <c r="AB3" t="n">
-        <v>148.3719174283847</v>
+        <v>175.7429197800126</v>
       </c>
       <c r="AC3" t="n">
-        <v>134.211509870354</v>
+        <v>158.9702621729943</v>
       </c>
       <c r="AD3" t="n">
-        <v>108439.6531271679</v>
+        <v>128444.12602337</v>
       </c>
       <c r="AE3" t="n">
-        <v>148371.9174283847</v>
+        <v>175742.9197800126</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.139196513524418e-06</v>
+        <v>7.218397288240343e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.111882716049383</v>
       </c>
       <c r="AH3" t="n">
-        <v>134211.509870354</v>
+        <v>158970.2621729943</v>
       </c>
     </row>
     <row r="4">
@@ -6742,28 +6742,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>89.85928071075442</v>
+        <v>119.7805149376593</v>
       </c>
       <c r="AB4" t="n">
-        <v>122.9494321800816</v>
+        <v>163.8889848810033</v>
       </c>
       <c r="AC4" t="n">
-        <v>111.2153109334587</v>
+        <v>148.2476501836405</v>
       </c>
       <c r="AD4" t="n">
-        <v>89859.28071075442</v>
+        <v>119780.5149376593</v>
       </c>
       <c r="AE4" t="n">
-        <v>122949.4321800816</v>
+        <v>163888.9848810033</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.464211467004553e-06</v>
+        <v>7.785194987062554e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.741512345679012</v>
       </c>
       <c r="AH4" t="n">
-        <v>111215.3109334587</v>
+        <v>148247.6501836405</v>
       </c>
     </row>
     <row r="5">
@@ -6848,28 +6848,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>87.90002092673006</v>
+        <v>117.821255153635</v>
       </c>
       <c r="AB5" t="n">
-        <v>120.2686865071396</v>
+        <v>161.2082392080612</v>
       </c>
       <c r="AC5" t="n">
-        <v>108.7904118650912</v>
+        <v>145.822751115273</v>
       </c>
       <c r="AD5" t="n">
-        <v>87900.02092673007</v>
+        <v>117821.255153635</v>
       </c>
       <c r="AE5" t="n">
-        <v>120268.6865071396</v>
+        <v>161208.2392080612</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.536223723825244e-06</v>
+        <v>7.91077807490487e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.664351851851851</v>
       </c>
       <c r="AH5" t="n">
-        <v>108790.4118650912</v>
+        <v>145822.751115273</v>
       </c>
     </row>
   </sheetData>
@@ -7145,28 +7145,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>184.3523210848037</v>
+        <v>225.5314301796083</v>
       </c>
       <c r="AB2" t="n">
-        <v>252.2389787585175</v>
+        <v>308.5820525160784</v>
       </c>
       <c r="AC2" t="n">
-        <v>228.1656446455081</v>
+        <v>279.131414521666</v>
       </c>
       <c r="AD2" t="n">
-        <v>184352.3210848037</v>
+        <v>225531.4301796083</v>
       </c>
       <c r="AE2" t="n">
-        <v>252238.9787585175</v>
+        <v>308582.0525160784</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.80254978114395e-06</v>
+        <v>4.764148885093916e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.287808641975309</v>
       </c>
       <c r="AH2" t="n">
-        <v>228165.6446455081</v>
+        <v>279131.414521666</v>
       </c>
     </row>
     <row r="3">
@@ -7251,28 +7251,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>125.6340613454642</v>
+        <v>156.6463373170118</v>
       </c>
       <c r="AB3" t="n">
-        <v>171.8980653163997</v>
+        <v>214.3304294657056</v>
       </c>
       <c r="AC3" t="n">
-        <v>155.4923552231003</v>
+        <v>193.875034092207</v>
       </c>
       <c r="AD3" t="n">
-        <v>125634.0613454642</v>
+        <v>156646.3373170118</v>
       </c>
       <c r="AE3" t="n">
-        <v>171898.0653163997</v>
+        <v>214330.4294657056</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.673013061297898e-06</v>
+        <v>6.24387877020157e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.559413580246914</v>
       </c>
       <c r="AH3" t="n">
-        <v>155492.3552231003</v>
+        <v>193875.034092207</v>
       </c>
     </row>
     <row r="4">
@@ -7357,28 +7357,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>101.380703439705</v>
+        <v>132.307638556681</v>
       </c>
       <c r="AB4" t="n">
-        <v>138.7135510471214</v>
+        <v>181.0291480742296</v>
       </c>
       <c r="AC4" t="n">
-        <v>125.474924420913</v>
+        <v>163.7519802580809</v>
       </c>
       <c r="AD4" t="n">
-        <v>101380.703439705</v>
+        <v>132307.638556681</v>
       </c>
       <c r="AE4" t="n">
-        <v>138713.5510471214</v>
+        <v>181029.1480742296</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.130399349720333e-06</v>
+        <v>7.021405146612817e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.945987654320988</v>
       </c>
       <c r="AH4" t="n">
-        <v>125474.924420913</v>
+        <v>163751.9802580809</v>
       </c>
     </row>
     <row r="5">
@@ -7463,28 +7463,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>96.61934645101771</v>
+        <v>127.5462815679937</v>
       </c>
       <c r="AB5" t="n">
-        <v>132.1988523589574</v>
+        <v>174.5144493860656</v>
       </c>
       <c r="AC5" t="n">
-        <v>119.5819794321083</v>
+        <v>157.8590352692762</v>
       </c>
       <c r="AD5" t="n">
-        <v>96619.3464510177</v>
+        <v>127546.2815679937</v>
       </c>
       <c r="AE5" t="n">
-        <v>132198.8523589574</v>
+        <v>174514.4493860656</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.283496704595066e-06</v>
+        <v>7.281660503161583e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.768518518518518</v>
       </c>
       <c r="AH5" t="n">
-        <v>119581.9794321083</v>
+        <v>157859.0352692762</v>
       </c>
     </row>
     <row r="6">
@@ -7569,28 +7569,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>93.80368659750819</v>
+        <v>124.7306217144842</v>
       </c>
       <c r="AB6" t="n">
-        <v>128.3463423292418</v>
+        <v>170.66193935635</v>
       </c>
       <c r="AC6" t="n">
-        <v>116.0971475525957</v>
+        <v>154.3742033897637</v>
       </c>
       <c r="AD6" t="n">
-        <v>93803.68659750819</v>
+        <v>124730.6217144842</v>
       </c>
       <c r="AE6" t="n">
-        <v>128346.3423292418</v>
+        <v>170661.93935635</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.351098821529725e-06</v>
+        <v>7.396579621526996e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.695216049382716</v>
       </c>
       <c r="AH6" t="n">
-        <v>116097.1475525957</v>
+        <v>154374.2033897637</v>
       </c>
     </row>
   </sheetData>
@@ -7866,28 +7866,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>108.9639579128141</v>
+        <v>137.7883969962757</v>
       </c>
       <c r="AB2" t="n">
-        <v>149.0892943668001</v>
+        <v>188.5281635652766</v>
       </c>
       <c r="AC2" t="n">
-        <v>134.8604213606121</v>
+        <v>170.5353002355992</v>
       </c>
       <c r="AD2" t="n">
-        <v>108963.9579128141</v>
+        <v>137788.3969962756</v>
       </c>
       <c r="AE2" t="n">
-        <v>149089.2943668001</v>
+        <v>188528.1635652766</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.938645661653722e-06</v>
+        <v>7.102310168844434e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.609567901234567</v>
       </c>
       <c r="AH2" t="n">
-        <v>134860.4213606121</v>
+        <v>170535.3002355992</v>
       </c>
     </row>
     <row r="3">
@@ -7972,28 +7972,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>81.75979705646535</v>
+        <v>110.4988952853553</v>
       </c>
       <c r="AB3" t="n">
-        <v>111.8673613202887</v>
+        <v>151.1894633965676</v>
       </c>
       <c r="AC3" t="n">
-        <v>101.1908973627368</v>
+        <v>136.7601532057851</v>
       </c>
       <c r="AD3" t="n">
-        <v>81759.79705646535</v>
+        <v>110498.8952853553</v>
       </c>
       <c r="AE3" t="n">
-        <v>111867.3613202887</v>
+        <v>151189.4633965676</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.739123332987028e-06</v>
+        <v>8.545760835248475e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.660493827160494</v>
       </c>
       <c r="AH3" t="n">
-        <v>101190.8973627368</v>
+        <v>136760.1532057851</v>
       </c>
     </row>
     <row r="4">
@@ -8078,28 +8078,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>81.8253557407716</v>
+        <v>110.5644539696616</v>
       </c>
       <c r="AB4" t="n">
-        <v>111.9570616044015</v>
+        <v>151.2791636806805</v>
       </c>
       <c r="AC4" t="n">
-        <v>101.272036777629</v>
+        <v>136.8412926206773</v>
       </c>
       <c r="AD4" t="n">
-        <v>81825.3557407716</v>
+        <v>110564.4539696616</v>
       </c>
       <c r="AE4" t="n">
-        <v>111957.0616044015</v>
+        <v>151279.1636806804</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.726981867270303e-06</v>
+        <v>8.523866899405471e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.675925925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>101272.036777629</v>
+        <v>136841.2926206773</v>
       </c>
     </row>
   </sheetData>
@@ -8375,28 +8375,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>91.2749886159455</v>
+        <v>109.7785191234488</v>
       </c>
       <c r="AB2" t="n">
-        <v>124.8864661925879</v>
+        <v>150.2038129510944</v>
       </c>
       <c r="AC2" t="n">
-        <v>112.9674771384563</v>
+        <v>135.8685718554584</v>
       </c>
       <c r="AD2" t="n">
-        <v>91274.98861594551</v>
+        <v>109778.5191234488</v>
       </c>
       <c r="AE2" t="n">
-        <v>124886.4661925879</v>
+        <v>150203.8129510944</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.578949052354055e-06</v>
+        <v>8.542855303880913e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.027006172839506</v>
       </c>
       <c r="AH2" t="n">
-        <v>112967.4771384564</v>
+        <v>135868.5718554583</v>
       </c>
     </row>
     <row r="3">
@@ -8481,28 +8481,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>76.98119102492254</v>
+        <v>104.6510116687793</v>
       </c>
       <c r="AB3" t="n">
-        <v>105.3290617307157</v>
+        <v>143.1881310419552</v>
       </c>
       <c r="AC3" t="n">
-        <v>95.27660390942945</v>
+        <v>129.5224567811538</v>
       </c>
       <c r="AD3" t="n">
-        <v>76981.19102492253</v>
+        <v>104651.0116687793</v>
       </c>
       <c r="AE3" t="n">
-        <v>105329.0617307157</v>
+        <v>143188.1310419552</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.856893180802312e-06</v>
+        <v>9.061410204743164e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.737654320987654</v>
       </c>
       <c r="AH3" t="n">
-        <v>95276.60390942945</v>
+        <v>129522.4567811538</v>
       </c>
     </row>
   </sheetData>
@@ -14671,28 +14671,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>73.89426169788246</v>
+        <v>100.7093887827886</v>
       </c>
       <c r="AB2" t="n">
-        <v>101.1053888397512</v>
+        <v>137.7950287172164</v>
       </c>
       <c r="AC2" t="n">
-        <v>91.45603243121511</v>
+        <v>124.6440645730197</v>
       </c>
       <c r="AD2" t="n">
-        <v>73894.26169788245</v>
+        <v>100709.3887827886</v>
       </c>
       <c r="AE2" t="n">
-        <v>101105.3888397512</v>
+        <v>137795.0287172164</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.869209573238002e-06</v>
+        <v>9.363670577194575e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.888117283950617</v>
       </c>
       <c r="AH2" t="n">
-        <v>91456.03243121511</v>
+        <v>124644.0645730197</v>
       </c>
     </row>
     <row r="3">
@@ -14777,28 +14777,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>73.71815708096094</v>
+        <v>100.533284165867</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.864434733692</v>
+        <v>137.5540746111571</v>
       </c>
       <c r="AC3" t="n">
-        <v>91.23807464685686</v>
+        <v>124.4261067886614</v>
       </c>
       <c r="AD3" t="n">
-        <v>73718.15708096094</v>
+        <v>100533.2841658671</v>
       </c>
       <c r="AE3" t="n">
-        <v>100864.4347336919</v>
+        <v>137554.0746111571</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.906731016825899e-06</v>
+        <v>9.435825704644598e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.853395061728396</v>
       </c>
       <c r="AH3" t="n">
-        <v>91238.07464685685</v>
+        <v>124426.1067886614</v>
       </c>
     </row>
   </sheetData>
@@ -15074,28 +15074,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>76.38775527738041</v>
+        <v>101.4233633270958</v>
       </c>
       <c r="AB2" t="n">
-        <v>104.5170967603916</v>
+        <v>138.7719201870709</v>
       </c>
       <c r="AC2" t="n">
-        <v>94.54213173627275</v>
+        <v>125.5277228920674</v>
       </c>
       <c r="AD2" t="n">
-        <v>76387.75527738041</v>
+        <v>101423.3633270958</v>
       </c>
       <c r="AE2" t="n">
-        <v>104517.0967603915</v>
+        <v>138771.9201870708</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.726722001959912e-06</v>
+        <v>9.749333593512856e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.405092592592593</v>
       </c>
       <c r="AH2" t="n">
-        <v>94542.13173627276</v>
+        <v>125527.7228920674</v>
       </c>
     </row>
   </sheetData>
@@ -15371,28 +15371,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>137.6126933476646</v>
+        <v>167.2581199122058</v>
       </c>
       <c r="AB2" t="n">
-        <v>188.2877580817492</v>
+        <v>228.8499385712497</v>
       </c>
       <c r="AC2" t="n">
-        <v>170.3178387140083</v>
+        <v>207.0088216269816</v>
       </c>
       <c r="AD2" t="n">
-        <v>137612.6933476645</v>
+        <v>167258.1199122058</v>
       </c>
       <c r="AE2" t="n">
-        <v>188287.7580817492</v>
+        <v>228849.9385712497</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.444232455138372e-06</v>
+        <v>6.051380556368676e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.203703703703703</v>
       </c>
       <c r="AH2" t="n">
-        <v>170317.8387140083</v>
+        <v>207008.8216269816</v>
       </c>
     </row>
     <row r="3">
@@ -15477,28 +15477,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>94.0330079818935</v>
+        <v>123.6783450378836</v>
       </c>
       <c r="AB3" t="n">
-        <v>128.6601099643031</v>
+        <v>169.2221679842552</v>
       </c>
       <c r="AC3" t="n">
-        <v>116.3809696449425</v>
+        <v>153.0718417766894</v>
       </c>
       <c r="AD3" t="n">
-        <v>94033.0079818935</v>
+        <v>123678.3450378836</v>
       </c>
       <c r="AE3" t="n">
-        <v>128660.1099643031</v>
+        <v>169222.1679842552</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.285986071984888e-06</v>
+        <v>7.530308455860109e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.984567901234568</v>
       </c>
       <c r="AH3" t="n">
-        <v>116380.9696449425</v>
+        <v>153071.8417766893</v>
       </c>
     </row>
     <row r="4">
@@ -15583,28 +15583,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>86.71847348959125</v>
+        <v>116.3638105455814</v>
       </c>
       <c r="AB4" t="n">
-        <v>118.652041177453</v>
+        <v>159.2140991974051</v>
       </c>
       <c r="AC4" t="n">
-        <v>107.3280568966935</v>
+        <v>144.0189290284402</v>
       </c>
       <c r="AD4" t="n">
-        <v>86718.47348959124</v>
+        <v>116363.8105455814</v>
       </c>
       <c r="AE4" t="n">
-        <v>118652.041177453</v>
+        <v>159214.0991974051</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.560902049900738e-06</v>
+        <v>8.013324984234418e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.6875</v>
       </c>
       <c r="AH4" t="n">
-        <v>107328.0568966935</v>
+        <v>144018.9290284402</v>
       </c>
     </row>
     <row r="5">
@@ -15689,28 +15689,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>86.57911319019111</v>
+        <v>116.2244502461812</v>
       </c>
       <c r="AB5" t="n">
-        <v>118.4613622676713</v>
+        <v>159.0234202876235</v>
       </c>
       <c r="AC5" t="n">
-        <v>107.1555761144418</v>
+        <v>143.8464482461886</v>
       </c>
       <c r="AD5" t="n">
-        <v>86579.11319019111</v>
+        <v>116224.4502461813</v>
       </c>
       <c r="AE5" t="n">
-        <v>118461.3622676713</v>
+        <v>159023.4202876234</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.576578298490338e-06</v>
+        <v>8.040867534613206e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.66820987654321</v>
       </c>
       <c r="AH5" t="n">
-        <v>107155.5761144418</v>
+        <v>143846.4482461886</v>
       </c>
     </row>
   </sheetData>
@@ -15986,28 +15986,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>175.7702617650513</v>
+        <v>206.5440715908487</v>
       </c>
       <c r="AB2" t="n">
-        <v>240.4966265835023</v>
+        <v>282.6027108318088</v>
       </c>
       <c r="AC2" t="n">
-        <v>217.5439660815778</v>
+        <v>255.6315047454998</v>
       </c>
       <c r="AD2" t="n">
-        <v>175770.2617650513</v>
+        <v>206544.0715908487</v>
       </c>
       <c r="AE2" t="n">
-        <v>240496.6265835022</v>
+        <v>282602.7108318088</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.927066620345147e-06</v>
+        <v>5.004957721474178e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.037037037037036</v>
       </c>
       <c r="AH2" t="n">
-        <v>217543.9660815778</v>
+        <v>255631.5047454998</v>
       </c>
     </row>
     <row r="3">
@@ -16092,28 +16092,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>121.0674388985106</v>
+        <v>151.6705670151647</v>
       </c>
       <c r="AB3" t="n">
-        <v>165.6498110193174</v>
+        <v>207.5223610232287</v>
       </c>
       <c r="AC3" t="n">
-        <v>149.8404255466495</v>
+        <v>187.7167181466938</v>
       </c>
       <c r="AD3" t="n">
-        <v>121067.4388985106</v>
+        <v>151670.5670151647</v>
       </c>
       <c r="AE3" t="n">
-        <v>165649.8110193174</v>
+        <v>207522.3610232286</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.784539780116546e-06</v>
+        <v>6.47114126582025e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.439814814814815</v>
       </c>
       <c r="AH3" t="n">
-        <v>149840.4255466495</v>
+        <v>187716.7181466938</v>
       </c>
     </row>
     <row r="4">
@@ -16198,28 +16198,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>99.90343041689543</v>
+        <v>130.5918098795701</v>
       </c>
       <c r="AB4" t="n">
-        <v>136.6922809246283</v>
+        <v>178.6814755811888</v>
       </c>
       <c r="AC4" t="n">
-        <v>123.6465614820396</v>
+        <v>161.6283663327962</v>
       </c>
       <c r="AD4" t="n">
-        <v>99903.43041689543</v>
+        <v>130591.8098795701</v>
       </c>
       <c r="AE4" t="n">
-        <v>136692.2809246283</v>
+        <v>178681.4755811888</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.15568089564758e-06</v>
+        <v>7.105751212523328e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.953703703703704</v>
       </c>
       <c r="AH4" t="n">
-        <v>123646.5614820396</v>
+        <v>161628.3663327962</v>
       </c>
     </row>
     <row r="5">
@@ -16304,28 +16304,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>94.01810343028582</v>
+        <v>124.7064828929605</v>
       </c>
       <c r="AB5" t="n">
-        <v>128.6397168992511</v>
+        <v>170.6289115558115</v>
       </c>
       <c r="AC5" t="n">
-        <v>116.3625228653972</v>
+        <v>154.3443277161538</v>
       </c>
       <c r="AD5" t="n">
-        <v>94018.10343028582</v>
+        <v>124706.4828929605</v>
       </c>
       <c r="AE5" t="n">
-        <v>128639.7168992511</v>
+        <v>170628.9115558115</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.347096405541769e-06</v>
+        <v>7.433050402639426e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.737654320987654</v>
       </c>
       <c r="AH5" t="n">
-        <v>116362.5228653972</v>
+        <v>154344.3277161538</v>
       </c>
     </row>
     <row r="6">
@@ -16410,28 +16410,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>92.50496518896492</v>
+        <v>123.1933446516395</v>
       </c>
       <c r="AB6" t="n">
-        <v>126.5693744025289</v>
+        <v>168.5585690590894</v>
       </c>
       <c r="AC6" t="n">
-        <v>114.4897709508176</v>
+        <v>152.4715758015742</v>
       </c>
       <c r="AD6" t="n">
-        <v>92504.96518896491</v>
+        <v>123193.3446516395</v>
       </c>
       <c r="AE6" t="n">
-        <v>126569.3744025289</v>
+        <v>168558.5690590894</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.391667501682774e-06</v>
+        <v>7.509262009930821e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.6875</v>
       </c>
       <c r="AH6" t="n">
-        <v>114489.7709508176</v>
+        <v>152471.5758015742</v>
       </c>
     </row>
   </sheetData>
@@ -16707,28 +16707,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>82.68618995364503</v>
+        <v>107.0147240078659</v>
       </c>
       <c r="AB2" t="n">
-        <v>113.1348929517795</v>
+        <v>146.4222665439206</v>
       </c>
       <c r="AC2" t="n">
-        <v>102.3374575543103</v>
+        <v>132.4479309299503</v>
       </c>
       <c r="AD2" t="n">
-        <v>82686.18995364502</v>
+        <v>107014.7240078659</v>
       </c>
       <c r="AE2" t="n">
-        <v>113134.8929517795</v>
+        <v>146422.2665439206</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.340268911588164e-06</v>
+        <v>9.303195363994107e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.09567901234568</v>
       </c>
       <c r="AH2" t="n">
-        <v>102337.4575543103</v>
+        <v>132447.9309299503</v>
       </c>
     </row>
   </sheetData>
@@ -17004,28 +17004,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>96.16278890376084</v>
+        <v>114.9193663624704</v>
       </c>
       <c r="AB2" t="n">
-        <v>131.5741701809035</v>
+        <v>157.2377469416938</v>
       </c>
       <c r="AC2" t="n">
-        <v>119.0169160443807</v>
+        <v>142.2311970581856</v>
       </c>
       <c r="AD2" t="n">
-        <v>96162.78890376084</v>
+        <v>114919.3663624704</v>
       </c>
       <c r="AE2" t="n">
-        <v>131574.1701809035</v>
+        <v>157237.7469416938</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.391633097141218e-06</v>
+        <v>8.091287700412643e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.165895061728396</v>
       </c>
       <c r="AH2" t="n">
-        <v>119016.9160443807</v>
+        <v>142231.1970581856</v>
       </c>
     </row>
     <row r="3">
@@ -17110,28 +17110,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>78.76738492425503</v>
+        <v>106.8167759949212</v>
       </c>
       <c r="AB3" t="n">
-        <v>107.7730110250945</v>
+        <v>146.1514253397598</v>
       </c>
       <c r="AC3" t="n">
-        <v>97.48730611325789</v>
+        <v>132.2029384301865</v>
       </c>
       <c r="AD3" t="n">
-        <v>78767.38492425502</v>
+        <v>106816.7759949212</v>
       </c>
       <c r="AE3" t="n">
-        <v>107773.0110250945</v>
+        <v>146151.4253397598</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.799679967109722e-06</v>
+        <v>8.843086529489977e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.72608024691358</v>
       </c>
       <c r="AH3" t="n">
-        <v>97487.30611325789</v>
+        <v>132202.9384301865</v>
       </c>
     </row>
   </sheetData>
@@ -17407,28 +17407,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>114.4705076032449</v>
+        <v>143.6118003259517</v>
       </c>
       <c r="AB2" t="n">
-        <v>156.6235985850709</v>
+        <v>196.4960009113584</v>
       </c>
       <c r="AC2" t="n">
-        <v>141.6756621587559</v>
+        <v>177.7426983683034</v>
       </c>
       <c r="AD2" t="n">
-        <v>114470.5076032449</v>
+        <v>143611.8003259517</v>
       </c>
       <c r="AE2" t="n">
-        <v>156623.5985850709</v>
+        <v>196496.0009113584</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.779362124552453e-06</v>
+        <v>6.75155462416344e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.779320987654321</v>
       </c>
       <c r="AH2" t="n">
-        <v>141675.6621587559</v>
+        <v>177742.6983683034</v>
       </c>
     </row>
     <row r="3">
@@ -17513,28 +17513,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>86.21275069768183</v>
+        <v>115.2687025658169</v>
       </c>
       <c r="AB3" t="n">
-        <v>117.9600889426479</v>
+        <v>157.7157241467378</v>
       </c>
       <c r="AC3" t="n">
-        <v>106.7021436120169</v>
+        <v>142.6635567896255</v>
       </c>
       <c r="AD3" t="n">
-        <v>86212.75069768183</v>
+        <v>115268.7025658169</v>
       </c>
       <c r="AE3" t="n">
-        <v>117960.0889426479</v>
+        <v>157715.7241467378</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.562764864670922e-06</v>
+        <v>8.151046448000113e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.783950617283951</v>
       </c>
       <c r="AH3" t="n">
-        <v>106702.1436120169</v>
+        <v>142663.5567896256</v>
       </c>
     </row>
     <row r="4">
@@ -17619,28 +17619,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>83.31521508336365</v>
+        <v>112.3711669514988</v>
       </c>
       <c r="AB4" t="n">
-        <v>113.9955528848903</v>
+        <v>153.7511880889802</v>
       </c>
       <c r="AC4" t="n">
-        <v>103.1159773113491</v>
+        <v>139.0773904889577</v>
       </c>
       <c r="AD4" t="n">
-        <v>83315.21508336366</v>
+        <v>112371.1669514988</v>
       </c>
       <c r="AE4" t="n">
-        <v>113995.5528848903</v>
+        <v>153751.1880889802</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.680606386593229e-06</v>
+        <v>8.361561727042665e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.664351851851851</v>
       </c>
       <c r="AH4" t="n">
-        <v>103115.9773113491</v>
+        <v>139077.3904889578</v>
       </c>
     </row>
   </sheetData>
